--- a/items_data/walmart.xlsx
+++ b/items_data/walmart.xlsx
@@ -460,7 +460,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="2:7"/>

--- a/items_data/walmart.xlsx
+++ b/items_data/walmart.xlsx
@@ -460,7 +460,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="2:7"/>
@@ -521,11 +521,476 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="12.8" customHeight="1" s="4"/>
-    <row r="3" ht="12.8" customHeight="1" s="4"/>
-    <row r="4" ht="12.8" customHeight="1" s="4"/>
-    <row r="5" ht="12.8" customHeight="1" s="4"/>
-    <row r="6" ht="12.8" customHeight="1" s="4"/>
+    <row r="2" ht="12.8" customHeight="1" s="4">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Squishmallows Official Kellytoy Plush 8" Teal Leopard - Ultrasoft Stuffed Animal Plush Toy</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Teal Leopard </t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>9.88</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>8"</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>https://www.walmart.com/ip/Squishmallows-Official-Kellytoy-Plush-8-Teal-Leopard-Ultrasoft-Stuffed-Animal-Plush-Toy/529260757</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>070373f8-9eb1-4476-ba18-9783df6514fd.476d4eb02d657c90169a7c7d6cb7417b.jpeg.jpg</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Walmart</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="12.8" customHeight="1" s="4">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Squishmallows Official Kellytoy Plush 16" Teal Leopard - Ultrasoft Stuffed Animal Plush Toy</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Teal Leopard </t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>19.88</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>16"</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>https://www.walmart.com/ip/Squishmallows-Official-Kellytoy-Plush-16-Teal-Leopard-Ultrasoft-Stuffed-Animal-Plush-Toy/303525050</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>9dd1300d-7f53-4cbb-a8cd-53ad6b457962.3c29bdfec3fe5e37d49fe3b731cb76ea.jpeg.jpg</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Walmart</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="12.8" customHeight="1" s="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Squishmallows Official Kellytoy Plush 16" Austin the Avocado - Ultrasoft Stuffed Veggie Plush Toy</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Austin the Avocado </t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>40.99</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>16"</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>https://www.walmart.com/ip/Squishmallows-Official-Kellytoy-Plush-16-Austin-the-Avocado-Ultrasoft-Stuffed-Veggie-Plush-Toy/676601629</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>a5992470-ed04-4aee-9287-72edd14c2948.825bcaf7176d6f3e07ae0dbda1170d96.jpeg.jpg</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Walmart</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="12.8" customHeight="1" s="4">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Squishmallows Official Kellytoy Plush 16" Rainbow Mane Lion - Ultrasoft Stuffed Animal Plush Toy</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Rainbow Mane Lion </t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>52.99</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>16"</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>https://www.walmart.com/ip/Squishmallows-Official-Kellytoy-Plush-16-Rainbow-Mane-Lion-Ultrasoft-Stuffed-Animal-Plush-Toy/304140559</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>de38f1ca-d023-4011-83ba-1cf888c5a5b7.c6c75febd2d973fe10ae7ea0fd4df84d.jpeg.jpg</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Walmart</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="12.8" customHeight="1" s="4">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Squishmallows Official Kellytoy Plush 16" Pineapple - Ultrasoft Stuffed Fruit Plush Toy</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Pineapple </t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>26.78</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>16"</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>https://www.walmart.com/ip/Squishmallows-Official-Kellytoy-Plush-16-Pineapple-Ultrasoft-Stuffed-Fruit-Plush-Toy/965383205</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>94e9f931-8966-4c91-9cd6-e818570b6c1e.632952279cff9125429e519e9137320c.jpeg.jpg</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Walmart</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Squishville Mini Squishmallows 6-Pack Fruit Squad</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Squishville Mini Squishmallows 6</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>14.97</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>https://www.walmart.com/ip/Squishville-Mini-Squishmallows-6-Pack-Fruit-Squad/689601447</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>92291a58-20ac-4296-bf7c-bd5ecc6b452f.1ed46a5c9891e3c76c7809772a1e7afe.jpeg.jpg</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Walmart</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Squishville Mini Squishmallows 6-Pack Sealife Squad</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Squishville Mini Squishmallows 6</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>14.97</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>https://www.walmart.com/ip/Squishville-Mini-Squishmallows-6-Pack-Sealife-Squad/950668237</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>cd96ad85-28c5-4b53-afe1-694f5dc46b79.55e343af40983a5acce3c37fb0ddaed1.jpeg.jpg</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Walmart</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Squishville Mini Squishmallows 6-Pack Rainbow Dream Squad</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Squishville Mini Squishmallows 6</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>14.97</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>https://www.walmart.com/ip/Squishville-Mini-Squishmallows-6-Pack-Rainbow-Dream-Squad/932087013</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>f95e5b65-2f3c-4b18-9e33-e86755d0420f.41f253d7431b3ef7ff996f1f6ae9a00f.jpeg.jpg</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Walmart</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Squishmallows Official Kellytoy Plush 8" Clown Fish - Ultrasoft Stuffed Animal Plush Toy</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Clown Fish </t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>34.50</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>8"</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>https://www.walmart.com/ip/Squishmallows-Official-Kellytoy-Plush-8-Clown-Fish-Ultrasoft-Stuffed-Animal-Plush-Toy/299724526</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>53426e6a-def9-46f4-ad58-ec5d00f016ba.8563b2acd4158548297b75962b4165b8.jpeg.jpg</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Walmart</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Squishmallows Official Kellytoy Plush 16" Brody the Blue Dino- Ultrasoft Stuffed Animal Plush Toy</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Brody the Blue Dino</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>89.99</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>16"</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>https://www.walmart.com/ip/Squishmallows-Official-Kellytoy-Plush-16-Brody-the-Blue-Dino-Ultrasoft-Stuffed-Animal-Plush-Toy/184158514</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>07e6b4cb-174e-4964-990e-8eaee65d4aae.78fa765c90bab0dc5b3acb6fe879565f.jpeg.jpg</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Walmart</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/items_data/walmart.xlsx
+++ b/items_data/walmart.xlsx
@@ -460,7 +460,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="2:7"/>
@@ -571,17 +571,17 @@
     <row r="3" ht="12.8" customHeight="1" s="4">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Squishmallows Official Kellytoy Plush 16" Teal Leopard - Ultrasoft Stuffed Animal Plush Toy</t>
+          <t>Squishmallows Official Kellytoy Plush 16" Rainbow Mane Lion - Ultrasoft Stuffed Animal Plush Toy</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Teal Leopard </t>
+          <t xml:space="preserve"> Rainbow Mane Lion </t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>19.88</t>
+          <t>27.81</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -601,12 +601,12 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://www.walmart.com/ip/Squishmallows-Official-Kellytoy-Plush-16-Teal-Leopard-Ultrasoft-Stuffed-Animal-Plush-Toy/303525050</t>
+          <t>https://www.walmart.com/ip/Squishmallows-Official-Kellytoy-Plush-16-Rainbow-Mane-Lion-Ultrasoft-Stuffed-Animal-Plush-Toy/304140559</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>9dd1300d-7f53-4cbb-a8cd-53ad6b457962.3c29bdfec3fe5e37d49fe3b731cb76ea.jpeg.jpg</t>
+          <t>de38f1ca-d023-4011-83ba-1cf888c5a5b7.c6c75febd2d973fe10ae7ea0fd4df84d.jpeg.jpg</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -615,382 +615,9 @@
         </is>
       </c>
     </row>
-    <row r="4" ht="12.8" customHeight="1" s="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Squishmallows Official Kellytoy Plush 16" Austin the Avocado - Ultrasoft Stuffed Veggie Plush Toy</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Austin the Avocado </t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>40.99</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>16"</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>https://www.walmart.com/ip/Squishmallows-Official-Kellytoy-Plush-16-Austin-the-Avocado-Ultrasoft-Stuffed-Veggie-Plush-Toy/676601629</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>a5992470-ed04-4aee-9287-72edd14c2948.825bcaf7176d6f3e07ae0dbda1170d96.jpeg.jpg</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>Walmart</t>
-        </is>
-      </c>
-    </row>
-    <row r="5" ht="12.8" customHeight="1" s="4">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Squishmallows Official Kellytoy Plush 16" Rainbow Mane Lion - Ultrasoft Stuffed Animal Plush Toy</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Rainbow Mane Lion </t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>52.99</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>16"</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>https://www.walmart.com/ip/Squishmallows-Official-Kellytoy-Plush-16-Rainbow-Mane-Lion-Ultrasoft-Stuffed-Animal-Plush-Toy/304140559</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>de38f1ca-d023-4011-83ba-1cf888c5a5b7.c6c75febd2d973fe10ae7ea0fd4df84d.jpeg.jpg</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>Walmart</t>
-        </is>
-      </c>
-    </row>
-    <row r="6" ht="12.8" customHeight="1" s="4">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Squishmallows Official Kellytoy Plush 16" Pineapple - Ultrasoft Stuffed Fruit Plush Toy</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Pineapple </t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>26.78</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>16"</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>https://www.walmart.com/ip/Squishmallows-Official-Kellytoy-Plush-16-Pineapple-Ultrasoft-Stuffed-Fruit-Plush-Toy/965383205</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>94e9f931-8966-4c91-9cd6-e818570b6c1e.632952279cff9125429e519e9137320c.jpeg.jpg</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>Walmart</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Squishville Mini Squishmallows 6-Pack Fruit Squad</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Squishville Mini Squishmallows 6</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>14.97</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>https://www.walmart.com/ip/Squishville-Mini-Squishmallows-6-Pack-Fruit-Squad/689601447</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>92291a58-20ac-4296-bf7c-bd5ecc6b452f.1ed46a5c9891e3c76c7809772a1e7afe.jpeg.jpg</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>Walmart</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Squishville Mini Squishmallows 6-Pack Sealife Squad</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Squishville Mini Squishmallows 6</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>14.97</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>https://www.walmart.com/ip/Squishville-Mini-Squishmallows-6-Pack-Sealife-Squad/950668237</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>cd96ad85-28c5-4b53-afe1-694f5dc46b79.55e343af40983a5acce3c37fb0ddaed1.jpeg.jpg</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>Walmart</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Squishville Mini Squishmallows 6-Pack Rainbow Dream Squad</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Squishville Mini Squishmallows 6</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>14.97</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>https://www.walmart.com/ip/Squishville-Mini-Squishmallows-6-Pack-Rainbow-Dream-Squad/932087013</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>f95e5b65-2f3c-4b18-9e33-e86755d0420f.41f253d7431b3ef7ff996f1f6ae9a00f.jpeg.jpg</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>Walmart</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Squishmallows Official Kellytoy Plush 8" Clown Fish - Ultrasoft Stuffed Animal Plush Toy</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Clown Fish </t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>34.50</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>8"</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>https://www.walmart.com/ip/Squishmallows-Official-Kellytoy-Plush-8-Clown-Fish-Ultrasoft-Stuffed-Animal-Plush-Toy/299724526</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>53426e6a-def9-46f4-ad58-ec5d00f016ba.8563b2acd4158548297b75962b4165b8.jpeg.jpg</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>Walmart</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Squishmallows Official Kellytoy Plush 16" Brody the Blue Dino- Ultrasoft Stuffed Animal Plush Toy</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Brody the Blue Dino</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>89.99</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>16"</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>https://www.walmart.com/ip/Squishmallows-Official-Kellytoy-Plush-16-Brody-the-Blue-Dino-Ultrasoft-Stuffed-Animal-Plush-Toy/184158514</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>07e6b4cb-174e-4964-990e-8eaee65d4aae.78fa765c90bab0dc5b3acb6fe879565f.jpeg.jpg</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>Walmart</t>
-        </is>
-      </c>
-    </row>
+    <row r="4" ht="12.8" customHeight="1" s="4"/>
+    <row r="5" ht="12.8" customHeight="1" s="4"/>
+    <row r="6" ht="12.8" customHeight="1" s="4"/>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
